--- a/data/Bile_Acids_Config.xlsx
+++ b/data/Bile_Acids_Config.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Bile acid python-081224\MetIDQ Export Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\00000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Analytes" sheetId="1" r:id="rId1"/>
     <sheet name="QC" sheetId="2" r:id="rId2"/>
-    <sheet name="Materials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
     <t>Cholic acid</t>
   </si>
   <si>
@@ -166,61 +162,7 @@
     <t>QC3</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Dilution</t>
-  </si>
-  <si>
-    <t>Serum</t>
-  </si>
-  <si>
-    <t>Plasma</t>
-  </si>
-  <si>
-    <t>451 (Gallbladder (including the bile))</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>46 (feces)</t>
-  </si>
-  <si>
-    <t>Feces</t>
-  </si>
-  <si>
-    <t>50 (intestine)</t>
-  </si>
-  <si>
-    <t>Intestine</t>
-  </si>
-  <si>
-    <t>51 (liver tissue)</t>
-  </si>
-  <si>
-    <t>Liver</t>
-  </si>
-  <si>
-    <t>45 (bile)</t>
-  </si>
-  <si>
-    <t>Bile</t>
-  </si>
-  <si>
-    <t>5022 (Liver extract)</t>
-  </si>
-  <si>
-    <t>461 (Caecal content)</t>
-  </si>
-  <si>
-    <t>Cecum</t>
-  </si>
-  <si>
-    <t>plasma</t>
-  </si>
-  <si>
-    <t>serum</t>
+    <t>FullName</t>
   </si>
 </sst>
 </file>
@@ -854,9 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -865,170 +805,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1053,73 +993,73 @@
   <sheetData>
     <row r="1" spans="1:22" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3">
         <v>570067</v>
@@ -1187,7 +1127,7 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6">
         <v>570071</v>
@@ -1255,7 +1195,7 @@
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9">
         <v>570091</v>
@@ -1332,137 +1272,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>